--- a/codes/test_shell_output/testNegCat_New_2.xlsx
+++ b/codes/test_shell_output/testNegCat_New_2.xlsx
@@ -353,12 +353,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>66.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13">
-        <v>33.33333333333334</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testNegCat_New_2.xlsx
+++ b/codes/test_shell_output/testNegCat_New_2.xlsx
@@ -353,12 +353,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testNegCat_New_2.xlsx
+++ b/codes/test_shell_output/testNegCat_New_2.xlsx
@@ -353,12 +353,12 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>60</v>
+        <v>14.28571428571429</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13">
-        <v>40</v>
+        <v>85.71428571428571</v>
       </c>
     </row>
   </sheetData>
